--- a/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_gradCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_gradCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2330681503629616</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2321417722691968</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2921000204447435</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2907416240964512</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2330471626146866</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006685612263097073</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006682965823393588</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006854252136823821</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006741090957390464</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006683863879165226</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01592151345069431</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01584658084564558</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02069646639474617</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02221117111562362</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01594491622370119</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004634498851745235</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004637267150732755</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004458093702185852</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004377550141620752</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004633254422623773</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005005255776140357</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005010761627426705</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004654404757519505</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004535621980782874</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005003420536358774</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006307388988220598</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006299148763304695</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006832483320604057</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.006710288155192846</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006305501025715928</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006517348978626289</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006525812310505715</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.005978037534057629</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.005868532838285239</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006515657088779365</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2858868856978279</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2862533673541131</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2625334648140698</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2606552360265719</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2858578663375774</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1610416468361187</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1613876553050099</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1389928450345087</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.142349716623999</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1610935117988005</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002427708915629678</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002422096331692798</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002785361291063646</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.00290783789610117</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.00242960122648528</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01987571546826012</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.01989198210645601</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.01883915158671767</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01838793701102923</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.0198687440287797</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002436711245534207</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002437251800761362</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002402265282102765</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002317476344261484</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002435401223694014</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01889033745973573</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.0189148338686361</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01732934542267135</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01651035109845765</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01887768368108217</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2202734306076786</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2205980830731157</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.1995855038416929</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.190825753892505</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2201380890874257</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003028319270636138</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003031149946850111</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002847939238302264</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002760888161018806</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003026974297867793</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.00256102351887591</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002566170855652599</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002233018228256724</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.00218722832959901</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002560316047254858</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002467251161502765</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002487524830893488</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001175346025133706</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001016935169034888</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002464803652588315</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005183101908659195</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005095614104103106</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01075811360966775</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.0100999441622523</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005172932936472322</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>8.624696501219967e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>8.733309650553024e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1.703508096875166e-06</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.315737495522619e-06</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>8.618705295648932e-06</v>
       </c>
     </row>
